--- a/biology/Médecine/Hémozoïne/Hémozoïne.xlsx
+++ b/biology/Médecine/Hémozoïne/Hémozoïne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mozo%C3%AFne</t>
+          <t>Hémozoïne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hémozoïne est aussi appelé « pigment malarique » ou « pigment lacustre ». La formation de l'hémozoïne caractérise la présence de plasmodium (parasite causant la malaria).
 Il s'agit d'un dimère qui apparaît lors de la dégradation de la cellule hôte (une hématie) par le parasite. En effet, le parasite utilise les acides aminés de la globine (voir hémoglobine) afin de produire des protéines en vue de se reproduire. Néanmoins, la structure moléculaire relativement complexe construite autour d'un atome de fer que l'on trouve dans les globines de l'hématie lui est potentiellement toxique. Le parasite l'évacue donc en couplant ces groupements héminiques (cf. hèmes) entre eux et en les chassant de la vacuole alimentaire. C'est l'association de ces groupements héminiques qui forme une molécule d'hémozoïne.
